--- a/data/financial_statements/soci/NTRS.xlsx
+++ b/data/financial_statements/soci/NTRS.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -107,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,2071 +578,2116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>2154600000</v>
+      </c>
+      <c r="C2">
         <v>2041100000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1834800000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1721200000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1668600000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1638700000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1587800000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1593200000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1540100000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1511900000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1540300000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1708800000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1703000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1741000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1729400000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1721700000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1735200000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1665300000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1660500000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1597900000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1532600000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1444800000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1396900000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1341200000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1288100000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1259800000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1361700000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1234200000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1198000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1192300000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1293500000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1172700000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1170100000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1123400000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1128900000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1090200000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1097700000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1101300000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1075700000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1037000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.2913</v>
+      </c>
+      <c r="C3">
         <v>0.2456</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.1556</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0803</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0834</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0839</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.0308</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.06759999999999999</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.09569999999999999</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.1316</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.1093</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0075</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-0.0186</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0455</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0415</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0775</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1322</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1526</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.1887</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1914</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.1898</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.1468</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0259</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0867</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0752</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.0566</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.0527</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0524</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.0238</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0613</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.1458</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0757</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.066</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.0201</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.0495</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0513</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.0579</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0489</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0188</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0124</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>635600000</v>
+      </c>
+      <c r="C4">
         <v>286300000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>66100000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2500000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1600000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4900000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>7500000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9800000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>18200000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>26800000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>34200000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>121100000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>155300000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>203100000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>222800000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>240800000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>231400000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>191000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>154400000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>121900000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>108100000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>99600000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>75700000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>56800000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>46700000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>46100000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>45000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>44200000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>41300000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>36800000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>37600000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>38200000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>40000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>44500000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>47200000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>49700000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>52500000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>54100000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>55200000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>60600000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1519000000</v>
+      </c>
+      <c r="C5">
         <v>1754800000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1768700000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1718700000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1667000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1633800000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1580300000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1583400000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1521900000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1485100000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1506100000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1587700000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1547700000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1537900000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1506600000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1480900000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1503800000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1474300000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1506100000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1476000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1424500000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1345200000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1321200000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1284400000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1241400000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>1213700000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1316700000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>1190000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1156700000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1155500000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1255900000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1134500000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1130100000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1078900000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1081700000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1040500000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1045200000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1047200000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1020500000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>976400000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>1328600000</v>
+      </c>
+      <c r="C6">
         <v>1230300000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1228100000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1207900000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1157400000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1115700000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1093800000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1087500000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1148500000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1095200000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1102900000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1126600000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1071300000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1029300000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>999700000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1028700000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1017900000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>993300000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>998900000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>992300000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>988900000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>928600000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>930400000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>893500000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>851900000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>840000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>922000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>830800000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>806300200</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>802300000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>844500000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>784500000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>784300000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>774700000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>811000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>771000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>799500000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>745700000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>734700000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>733900000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>190400100</v>
+      </c>
+      <c r="C7">
         <v>524500000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>540600100</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>510799900</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>509599700</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>518099900</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>486499900</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>495900000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>373399900</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>389900000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>403200100</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>461100100</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>476400300</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>508600000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>506899900</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>452200000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>485899400</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>481000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>507200000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>483700000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>435600300</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>416600100</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>390800000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>390900000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>389499800</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>373700100</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>394700000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>359200000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>350399800</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>353200000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>411400000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>349999900</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>345800300</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>304200000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>270699900</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>269499900</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>245700200</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>301500100</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>285799900</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>242500000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>190400000</v>
+      </c>
+      <c r="C8">
         <v>524500000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>540600000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>510800000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>509600000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>518100000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>486500000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>495900000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>373399900</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>389900000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>403200000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>461100000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>476400000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>508600000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>506900000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>452200000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>485900000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>481000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>507200000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>483700000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>435600100</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>416600000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>390800000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>390900000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>389499900</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>373700000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>394700000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>359200000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>350400000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>353200000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>411400000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>350000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>345799900</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>304200000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>270700000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>269500000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>245700000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>301500000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>285800000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>242500000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>34700000</v>
+      </c>
+      <c r="C9">
         <v>129700000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>144400000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>121500000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>103200000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>122400000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>118400000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>120800000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>132500000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>95400000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>89900000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>100500000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>105300000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>124000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>117500000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>105100000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>76000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>106500000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>116800000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>102100000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>79000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>118200000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>122900000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>114800000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>123000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>116100000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>131700000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>113800000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>111100000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>118600000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>142200000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>119300000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>101800000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>99700000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>88800000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>88100000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>76000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>95000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>94700000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>78500000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>155700000</v>
+      </c>
+      <c r="C10">
         <v>394800000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>396200000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>389300000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>406400100</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>395700000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>368100000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>375100000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>240900000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>294500000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>313300000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>360600000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>371099900</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>384600000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>389400000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>347100000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>409900000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>374500000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>390400000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>381600000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>356600000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>298400000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>267900000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>276100000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>266500000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>257600000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>263000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>245400000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>239299900</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>234600000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>269200000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>230700000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>243999900</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>204500000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>181900000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>181400000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>169700000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>206500000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>191100000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>164000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>7000000</v>
+      </c>
+      <c r="C11">
         <v>16200000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4700000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>19300000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>13900000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>16200000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4700000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>19900000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>12900000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>16200000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4800000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>34400000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>22700000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>17400000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>5900000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>17300000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>5900000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>17300000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>5900000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>17300000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>20200000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>17300000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>5900000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>25200000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>20400000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>5900000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>5800000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>10000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>21300000</v>
-      </c>
-      <c r="AD11">
-        <v>5800000</v>
       </c>
       <c r="AE11">
         <v>5800000</v>
       </c>
       <c r="AF11">
+        <v>5800000</v>
+      </c>
+      <c r="AG11">
         <v>5900000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>8700000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>3200000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>148700000</v>
+      </c>
+      <c r="C12">
         <v>378600000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>391500000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>370000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>392499900</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>379500000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>363400000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>355200000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>228000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>278300000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>308500000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>326200000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>348400000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>367200000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>383500000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>329800000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>404000100</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>357200000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>384500000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>364300000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>336400100</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>281100000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>262000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>250900000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>246100000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>251700000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>257200000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>235400000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>218000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>228800000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>263400000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>224800000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>221200000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>204500000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>181900000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>181400000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>161000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>206500000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>187900000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>164000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>1.8</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.86</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.78</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.92</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.81</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.73</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.71</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.13</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.32</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1.47</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1.56</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1.71</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1.7</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1.76</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1.49</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1.81</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1.59</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1.69</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1.59</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>1.52</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1.21</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>1.12</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>1.1</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>1.12</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>1.09</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1.1</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>1.01</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>1</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>0.97</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>1.11</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>0.95</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>0.98</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>0.85</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>0.76</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>0.75</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>0.7</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>0.85</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>0.78</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>0.68</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>1.8</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.86</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.77</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.91</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.8</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.72</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.7</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.12</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1.32</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.46</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1.55</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1.7</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1.69</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1.75</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1.48</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1.8</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1.58</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1.68</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1.58</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1.51</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1.2</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1.12</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1.09</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1.11</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1.08</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1.09</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1.01</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>0.99</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>0.96</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1.1</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>0.98</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>0.84</v>
-      </c>
-      <c r="AI14">
-        <v>0.75</v>
       </c>
       <c r="AJ14">
         <v>0.75</v>
       </c>
       <c r="AK14">
+        <v>0.75</v>
+      </c>
+      <c r="AL14">
         <v>0.7</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>0.84</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>0.78</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>0.67</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>208423000</v>
+      </c>
+      <c r="C15">
         <v>208400000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>208384000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>208025000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>208076000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>208116000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>208369000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>208113000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>208319000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>208106000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>208069000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>208881000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>214526000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>213177000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>216139000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>218237000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>223148000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>222443000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>224208000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>225681000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>228258000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>228011000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>229197000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>229060000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>227581000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>226540000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>227536000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>228619000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>232280000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>232232000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>233149000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>233381000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>235830000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>235701000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>236013000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>237208000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>239265000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>239930000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>239739000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>239168000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>208894000</v>
+      </c>
+      <c r="C16">
         <v>208889000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>208878000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>208809000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>208899000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>208923000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>209138000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>208946000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>209008000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>208688000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>208568000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>209817000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>215601000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>214207000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>217170000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>219270000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>224488000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>223860000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>225611000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>227048000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>229654000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>229314000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>230638000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>230631000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>229151000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>228055000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>229280000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>229798000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>234222000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>234163000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>235233000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>235289000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>237720000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>237737000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>237754000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>239051000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>240555000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>241331000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>241041000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>240189000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>0.705</v>
+      </c>
+      <c r="C17">
         <v>0.8597</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.964</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.9985000000000001</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.999</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.997</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.9953</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.9938</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.9882</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.9823</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.9778</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.9291</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.9088000000000001</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.8833</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.8712</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.8601</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.8666</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.8853</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0.907</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.9237</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.9295</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.9311</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.9458</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.9576</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.9637</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.9634</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.967</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.9641999999999999</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.9655</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.9691</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.9709</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>0.9674</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.9658</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.9604</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.9582000000000001</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.9544</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.9522</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.9509</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0.9487</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.9416</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2647,1108 +2806,1135 @@
       <c r="AN18">
         <v>0</v>
       </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>0.08840000000000001</v>
+      </c>
+      <c r="C19">
         <v>0.257</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.2946</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.2968</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.3054</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.3162</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.3064</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.3113</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.2425</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.2579</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.2618</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.2698</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.2797</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.2921</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.2931</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.2626</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.28</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.2888</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.3055</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.3027</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.2842</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.2883</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.2798</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.2915</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.3024</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.2966</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.2899</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.291</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.2925</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.2962</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.3181</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.2985</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.2955</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.2708</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.2398</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.2472</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.2238</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.2738</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.2657</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.2338</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="C20">
         <v>0.1855</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.2134</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.215</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.2352</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.2316</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.2289</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.2229</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.148</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.1841</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.2003</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.1909</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.2046</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.2109</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.2218</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.1916</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.2328</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.2145</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.2316</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.228</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.2195</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.1946</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.1876</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.1871</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.1911</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.1998</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.1889</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.1907</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.182</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.1919</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.2036</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.1917</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.189</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.182</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.1611</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.1664</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.1467</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.1875</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.1747</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.1581</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>155700000</v>
+      </c>
+      <c r="C21">
         <v>394800000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>396200000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>389300000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>406400100</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>395700000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>368100000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>375100000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>240900000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>294500000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>313300000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>360600000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>371099900</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>384600000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>389400000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>347100000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>409900000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>374500000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>390400000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>381600000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>356600000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>298400000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>267900000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>276100000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>266500000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>257600000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>263000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>245400000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>239299900</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>234600000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>269200000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>230700000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>243999900</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>204500000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>181900000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>181400000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>169700000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>206500000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>191100000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>164000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>155700000</v>
+      </c>
+      <c r="C22">
         <v>394800000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>396200000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>389300000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>406400100</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>395700000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>368100000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>375100000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>240900100</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>294500000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>313300000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>360600000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>371099900</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>384600000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>389400000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>347100000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>409900000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>374500000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>390400000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>381600000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>356599900</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>298400000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>267900000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>276100000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>266500000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>257600000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>263000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>245400000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>239299900</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>234600000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>269200000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>230700000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>244000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>204500000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>181900000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>181400000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>169700000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>206500000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>191100000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>164000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.747</v>
+      </c>
+      <c r="C23">
         <v>1.8944</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.9013</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1.8714</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1.9563</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1.9013</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.7666</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1.8024</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1.1578</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>1.4151</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1.5058</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1.7263</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1.7596</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1.8041</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1.8016</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1.5905</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>1.859</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1.6836</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>1.7412</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1.6909</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1.5699</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1.3087</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>1.1689</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>1.2054</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>1.1705</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>1.1371</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>1.1559</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>1.0734</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>1.039</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>1.0102</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>1.1546</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.9885</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>1.0392</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.8676</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.7707000000000001</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.7647</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.7129</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.8607</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.7971</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.6857</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>0.7454</v>
+      </c>
+      <c r="C24">
         <v>1.89</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1.8968</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1.8644</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1.9481</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.894</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1.7601</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1.7952</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1.1539</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1.4112</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1.5021</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1.7186</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1.7496</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1.7955</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1.7931</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1.583</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1.8491</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1.6729</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1.7304</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1.6807</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1.5609</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1.3013</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1.1616</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1.1972</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>1.1612</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1.1296</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>1.1471</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1.0679</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1.0308</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>1.0019</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1.1444</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.9805</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>1.0308</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.8602</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.7651</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.7588</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.7088</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.8557</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.7927999999999999</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.6828</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>0.747</v>
+      </c>
+      <c r="C25">
         <v>1.8944</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.9013</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1.8714</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.9563</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1.9013</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.7666</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1.8024</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1.1578</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1.4151</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1.5058</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1.7263</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1.7596</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1.8041</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1.8016</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1.5905</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1.859</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1.6836</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1.7412</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1.6909</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1.5699</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1.3087</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1.1689</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>1.2054</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1.1705</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1.1371</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1.1559</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1.0734</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1.039</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1.0102</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1.1546</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>0.9885</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1.0392</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.8676</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.7707000000000001</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.7647</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.7129</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.8607</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.7971</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.6857</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>0.7454</v>
+      </c>
+      <c r="C26">
         <v>1.89</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.8968</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1.8644</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.9481</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1.894</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1.7601</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1.7952</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.1539</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1.4112</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1.5021</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1.7186</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1.7496</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1.7955</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1.7931</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1.583</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1.8491</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1.6729</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1.7304</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1.6807</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1.5609</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1.3013</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1.1616</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1.1972</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1.1612</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1.1296</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1.1471</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1.0679</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1.0308</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1.0019</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1.1444</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.9805</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1.0308</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.8602</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.7651</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.7588</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.7088</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.8557</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.7927999999999999</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>0.6828</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>208889000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>208878000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>208809000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>208593000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>208923000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>209138000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>208946000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>208962000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>208121000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>208568000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>209817000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>211855000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>214207000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>217170000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>219270000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>221502000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>223860000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>225611000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>227048000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>228067000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>229314000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>230638000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>230631000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>229480000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>228055000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>229197000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>229980000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>232236000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>234163000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>235233000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>235289000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>236369000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>237737000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>237754000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>239051000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>239656000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>241331000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>241041000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>240176000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3867,126 +4053,132 @@
       <c r="AN28">
         <v>0</v>
       </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>-0.4388</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-0.8779</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.4339</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.2237</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.294</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-0.7784</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.0429</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.9586</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-0.0515</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2.0669</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-1.5715</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.9609</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.3315</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.049</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>0.1706</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.2646</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.8731</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.2001</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-0.299</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.5551</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.3856</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.338</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.5851</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.651</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.9356</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-0.1555</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-0.2394</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1.1274</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-0.8751</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>0.8012</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>0.4185</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-0.2884</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-0.2372</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.8871</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.4939</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-0.1108</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>2.0363</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-1.482</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.3014</v>
       </c>
     </row>
